--- a/LOGS/c7762008-71de-41b3-bc99-68ac778cba31/main_page_service_output/main_pages.xlsx
+++ b/LOGS/c7762008-71de-41b3-bc99-68ac778cba31/main_page_service_output/main_pages.xlsx
@@ -949,10 +949,10 @@
         <v>16301173</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1208,7 +1208,7 @@
         <v>46</v>
       </c>
       <c r="F29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1225,7 +1225,7 @@
         <v>46</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:6">
